--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1914740.213414583</v>
+        <v>-1917221.133240042</v>
       </c>
     </row>
     <row r="7">
@@ -1376,19 +1376,19 @@
         <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>113.6068875465485</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>260.865933617751</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579957</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1531,22 +1531,22 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>20.02266614744676</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292092</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>104.955811913743</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184865</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763543</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>317.2412928176536</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851355</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545852</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663272</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001942</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524939</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>324.5652039079055</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689273</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115016</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310861</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.31955442562042</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>90.12097307876913</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271945</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292102</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184866</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019109</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>3.974324134332196</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816015</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
@@ -1910,7 +1910,7 @@
         <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>287.3256240034741</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2011,16 +2011,16 @@
         <v>72.53867944085023</v>
       </c>
       <c r="F19" t="n">
-        <v>133.925459012175</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G19" t="n">
         <v>92.13052505330928</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2059,7 +2059,7 @@
         <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130709</v>
       </c>
       <c r="W19" t="n">
         <v>212.627715130872</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>97.90474570419632</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>196.1505424627065</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>295.8358174727501</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2245,7 +2245,7 @@
         <v>74.72018981249342</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9383736358124</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F22" t="n">
         <v>71.52576481721231</v>
@@ -2257,7 +2257,7 @@
         <v>70.85973170860184</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782799</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245689</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2530,13 +2530,13 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948558</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258338</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833182</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958318</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145469</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>133.1067657762842</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
-        <v>50.95950582245067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052291</v>
+        <v>120.5216066929743</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>90.60953276887635</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383237</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>165.403467130725</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>170.2318734253262</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.5216066929744</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>89.27723295060954</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1764.13854024274</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1422.368090562052</v>
+        <v>797.5365442767278</v>
       </c>
       <c r="D11" t="n">
-        <v>1091.294459215025</v>
+        <v>466.4629129297009</v>
       </c>
       <c r="E11" t="n">
-        <v>732.6982738765041</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="F11" t="n">
-        <v>732.6982738765041</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="G11" t="n">
-        <v>344.8178909812243</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299108</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5054,7 +5054,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142732</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.396592058884</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2469.820004048494</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2123.546313047138</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2123.546313047138</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5121,43 +5121,43 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.269209623742</v>
+        <v>418.3126375609364</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555586</v>
+        <v>276.5685218927531</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029466</v>
+        <v>276.5685218927531</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802771</v>
+        <v>276.5685218927531</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420904</v>
+        <v>156.8706416545657</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>156.8706416545657</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541145</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1807.353930532291</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1545.443130917659</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1317.950709971495</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1055.725607194258</v>
+        <v>967.1670306535526</v>
       </c>
       <c r="X13" t="n">
-        <v>1055.725607194258</v>
+        <v>766.3695470152589</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.174055327377</v>
+        <v>1848.301903863757</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.174055327377</v>
+        <v>1527.856153542895</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>1196.782522195868</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>838.1863368573472</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589725</v>
+        <v>454.3924993274633</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636927</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5276,16 +5276,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253118</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U14" t="n">
-        <v>3146.820141253118</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="V14" t="n">
-        <v>2842.949321169271</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="W14" t="n">
-        <v>2517.37273315888</v>
+        <v>2916.9306323856</v>
       </c>
       <c r="X14" t="n">
-        <v>2189.529092847863</v>
+        <v>2570.656941384244</v>
       </c>
       <c r="Y14" t="n">
-        <v>1826.581828131775</v>
+        <v>2207.709676668155</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>776.4069663581909</v>
+        <v>418.3126375609356</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6628506900074</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="D16" t="n">
-        <v>511.7382785373952</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="E16" t="n">
-        <v>391.0172522147257</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201596</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546021</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218343</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.289170905034</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.378371290401</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1393.885950344238</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.660847567001</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X16" t="n">
-        <v>930.863363928707</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y16" t="n">
-        <v>930.863363928707</v>
+        <v>572.7690351314517</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542003</v>
+        <v>1544.173786276205</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809389</v>
+        <v>1249.85296954359</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9592424104351</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8126900199877</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4684854381771</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156194</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5528,37 +5528,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219626</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166343</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398328</v>
+        <v>1856.13192613253</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.121778987229</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671191</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989061</v>
+        <v>399.3523570625803</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243099</v>
+        <v>326.0809636879841</v>
       </c>
       <c r="F19" t="n">
         <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604116</v>
+        <v>89.19609340604117</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088442</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865765</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356255</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817309</v>
+        <v>822.2794225454051</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096719</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D20" t="n">
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628261</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5768,13 +5768,13 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344064</v>
@@ -5783,10 +5783,10 @@
         <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.727123406592</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406592</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="W20" t="n">
         <v>2781.600168344275</v>
@@ -5820,22 +5820,22 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031483</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235544</v>
+        <v>569.121778987229</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034445</v>
+        <v>474.8272962671191</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989057</v>
+        <v>399.3523570625803</v>
       </c>
       <c r="E22" t="n">
         <v>326.0809636879841</v>
@@ -5905,22 +5905,22 @@
         <v>89.19609340604117</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817305</v>
+        <v>822.2794225454051</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459973</v>
+        <v>676.1285436096719</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324337</v>
@@ -5972,67 +5972,67 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349364</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531258</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713544</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516339</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575121</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454458</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811636</v>
+        <v>3296.525057137383</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893065</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124121</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859013</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932666</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796892</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
         <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681292</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913277</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130998</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6139,19 +6139,19 @@
         <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634015</v>
+        <v>96.06173179634014</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667905</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6178,10 +6178,10 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453178</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
         <v>982.4929116259244</v>
@@ -6206,13 +6206,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6233,13 +6233,13 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521974</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668918</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415473</v>
@@ -6376,40 +6376,40 @@
         <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
@@ -6424,10 +6424,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164795</v>
@@ -6482,31 +6482,31 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C31" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973125</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982154</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6710,7 +6710,7 @@
         <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O32" t="n">
         <v>3355.268050164795</v>
@@ -6719,28 +6719,28 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6935,13 +6935,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6965,22 +6965,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964419</v>
+        <v>599.6022649647791</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423783</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300426</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214928</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>234.5635189974257</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>165.532116945988</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>117.9863647376892</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7120,25 +7120,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1233.58015894186</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1077.567105309816</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>886.821369846699</v>
+        <v>985.4928044205431</v>
       </c>
       <c r="X37" t="n">
-        <v>757.503253522525</v>
+        <v>856.1746880963691</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528383</v>
+        <v>734.0535435266823</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.564101365071</v>
+        <v>552.4050786964423</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110074</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725151</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639653</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398983</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>255.3625741884607</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466993</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649975</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214673</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,13 +7439,13 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049858</v>
@@ -7479,19 +7479,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158131</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.9279421464339</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>626.6631937923704</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>575.217988953878</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>525.9763299453283</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1667.205889266208</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1378.103022391852</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.089968759808</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1031.344233296691</v>
+        <v>877.980392515328</v>
       </c>
       <c r="X43" t="n">
-        <v>902.026116972517</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.9049724028303</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>894.1397680464977</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515856</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389144</v>
+        <v>453.733644122599</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110075</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>323.1827135986717</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>273.941054590122</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>225.722541666055</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146173</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552289</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891714</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649975</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953107</v>
+        <v>536.7106743789953</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.2353108430636</v>
       </c>
       <c r="K8" t="n">
-        <v>184.403943372901</v>
+        <v>184.4039433729015</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389607</v>
+        <v>191.4948909389613</v>
       </c>
       <c r="M8" t="n">
-        <v>181.085632533307</v>
+        <v>181.0856325333077</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830244</v>
+        <v>179.3553748830251</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383993</v>
+        <v>182.8301554384</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586587</v>
+        <v>190.8908035586593</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266126</v>
+        <v>192.010383626613</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875977</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372534</v>
+        <v>113.6031223372538</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672276</v>
+        <v>105.962971867228</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253595</v>
+        <v>104.10139812536</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677678</v>
+        <v>92.30246558677733</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359738</v>
+        <v>106.8829608359743</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798326</v>
+        <v>105.311348779833</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615461</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564659</v>
+        <v>116.1755252564662</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085231</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140779</v>
+        <v>108.4284123140782</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530928</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784353</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>274.0980055054521</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.835176366543</v>
+        <v>21.74982042514819</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>400.20329728821</v>
       </c>
       <c r="N29" t="n">
-        <v>343.5485285966299</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665426</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>274.8351763665422</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.4033359385868</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>6.82168418244305</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104945</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.81220217974763</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>87.67299077529982</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838813</v>
+        <v>21.11145236622753</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335567</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579964</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104951</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717757</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>18.2457501834373</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>54.18134701018452</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.98468859313289</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271178</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0521183134023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.01703144686053</v>
       </c>
     </row>
     <row r="18">
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.19514304898674</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>57.70643280170942</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
         <v>143373.3592754817</v>
@@ -26332,28 +26332,28 @@
         <v>139042.893718144</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="J2" t="n">
+        <v>143682.3097262498</v>
+      </c>
+      <c r="K2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="K2" t="n">
-        <v>143682.3097262498</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262495</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262495</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755225</v>
+        <v>59764.55367552163</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954652</v>
+        <v>430603.4278954655</v>
       </c>
       <c r="E4" t="n">
         <v>40024.1619436497</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364962</v>
+        <v>40024.16194364972</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509188</v>
+        <v>77052.32230509195</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509192</v>
+        <v>77052.32230509193</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754383</v>
+        <v>90617.5102775438</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699587</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186633</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184213</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342654.2312734834</v>
+        <v>-342658.6448513516</v>
       </c>
       <c r="C6" t="n">
-        <v>-342654.2312734835</v>
+        <v>-342658.6448513516</v>
       </c>
       <c r="D6" t="n">
-        <v>-382139.6197868134</v>
+        <v>-382143.9775369586</v>
       </c>
       <c r="E6" t="n">
-        <v>-1078163.124313738</v>
+        <v>-1078391.878736137</v>
       </c>
       <c r="F6" t="n">
-        <v>11075.84784989478</v>
+        <v>10847.09342749625</v>
       </c>
       <c r="G6" t="n">
-        <v>-56108.181007037</v>
+        <v>-56174.45837858132</v>
       </c>
       <c r="H6" t="n">
-        <v>-18528.07171216278</v>
+        <v>-18594.34908370718</v>
       </c>
       <c r="I6" t="n">
-        <v>-55493.19668297</v>
+        <v>-55493.19668296991</v>
       </c>
       <c r="J6" t="n">
-        <v>-60066.02016734908</v>
+        <v>-60066.02016734914</v>
       </c>
       <c r="K6" t="n">
-        <v>-34656.58714555221</v>
+        <v>-34656.58714555224</v>
       </c>
       <c r="L6" t="n">
-        <v>-72236.69644042624</v>
+        <v>-72236.69644042618</v>
       </c>
       <c r="M6" t="n">
-        <v>-233188.2864909062</v>
+        <v>-233188.2864909064</v>
       </c>
       <c r="N6" t="n">
-        <v>-31020.18649818204</v>
+        <v>-31020.18649818198</v>
       </c>
       <c r="O6" t="n">
-        <v>-31020.186498182</v>
+        <v>-31020.18649818195</v>
       </c>
       <c r="P6" t="n">
-        <v>-31020.18649818189</v>
+        <v>-31020.1864981821</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571894</v>
@@ -26707,25 +26707,25 @@
         <v>73.89528320571894</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790608</v>
+        <v>69.78465283790507</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
-      </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26799,34 +26799,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810303</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790608</v>
+        <v>69.78465283790507</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434006</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780178</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036574</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672109</v>
+        <v>84.22861846672116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987521</v>
+        <v>90.83829126987536</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519088</v>
+        <v>84.46220888519102</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990403</v>
+        <v>7.649035050990614</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317056</v>
+        <v>75.62456067317072</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437879</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4079043982189</v>
+        <v>227.407904398219</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>73.89528320571894</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>73.89528320571894</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075628</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G19" t="n">
         <v>73.89528320571894</v>
@@ -28779,7 +28779,7 @@
         <v>73.89528320571894</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075707</v>
       </c>
       <c r="W19" t="n">
         <v>73.89528320571894</v>
@@ -28819,7 +28819,7 @@
         <v>73.89528320571894</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>73.89528320571894</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49558901075682</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F22" t="n">
         <v>73.89528320571894</v>
@@ -29022,7 +29022,7 @@
         <v>73.89528320571894</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075727</v>
       </c>
       <c r="Y22" t="n">
         <v>73.89528320571894</v>
@@ -29250,13 +29250,13 @@
         <v>73.89528320571894</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075704</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V25" t="n">
         <v>73.89528320571894</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075721</v>
       </c>
       <c r="X25" t="n">
         <v>73.89528320571894</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859057</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>46.72521440565311</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>45.39291458738742</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810492</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>54.14548214544443</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>54.14548214544419</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810492</v>
+        <v>55.47778196371092</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.72521440565345</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>55.47778196371124</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413307</v>
+        <v>0.2805413179413267</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366655</v>
+        <v>2.873093772366613</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993317</v>
+        <v>10.81556915993301</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362304</v>
+        <v>23.8105936836227</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207958</v>
+        <v>35.68590767207907</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102659</v>
+        <v>44.27152403102595</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396573</v>
+        <v>49.26060069396502</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356654</v>
+        <v>50.05768871356582</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328743</v>
+        <v>47.26805598328675</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661082</v>
+        <v>40.34219219661023</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478369</v>
+        <v>30.29530624783646</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313213</v>
+        <v>17.62255356313188</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588081</v>
+        <v>6.392835282587988</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288176</v>
+        <v>1.228069619288158</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530646</v>
+        <v>0.02244330543530613</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179647</v>
+        <v>0.1501028381796449</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840276</v>
+        <v>1.449677410840255</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693989</v>
+        <v>5.168014384693914</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790692</v>
+        <v>14.18142647906899</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710555</v>
+        <v>24.2383166371052</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264661</v>
+        <v>32.59140791264614</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665881</v>
+        <v>38.03263579665826</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655654</v>
+        <v>39.03924649655598</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847067</v>
+        <v>35.71328360847016</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449769</v>
+        <v>28.66305863449728</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447565</v>
+        <v>19.16049562447537</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767914</v>
+        <v>9.319542882767779</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608793</v>
+        <v>2.788094384608753</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890157</v>
+        <v>0.605019773189007</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345204</v>
+        <v>0.009875186722345062</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486831</v>
+        <v>0.1258411772486813</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681102</v>
+        <v>1.118842466811003</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307858</v>
+        <v>3.784387403078525</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481894</v>
+        <v>8.896971231481764</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489245</v>
+        <v>14.62045677489224</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247724</v>
+        <v>18.70915102477213</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390822</v>
+        <v>19.72617653908192</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115531</v>
+        <v>19.25713215115503</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875023</v>
+        <v>17.78707839874997</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287708</v>
+        <v>15.21991838287686</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852382</v>
+        <v>10.53748257852367</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381694</v>
+        <v>5.658276933381613</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233867</v>
+        <v>2.193068516233835</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625549</v>
+        <v>0.5376850300625471</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356454</v>
+        <v>0.00686406421356444</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,13 +34208,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019255</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35817,13 +35817,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086621</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>672.859991724824</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794545</v>
+        <v>574.0516558380597</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120773</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184368</v>
       </c>
       <c r="N29" t="n">
-        <v>895.8503640095414</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629101</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,10 +37078,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>827.137011779454</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547613</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
